--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -48,179 +48,188 @@
     <t>ngx_http_range_body_filter_module</t>
   </si>
   <si>
+    <t>ngx_http_copy_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_module</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_init</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_postconfiguration</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_image_filter_module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_image_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_image_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_charset_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_ssi_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_gzip_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_image_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ngx_http_range_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_module</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_init</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_postconfiguration</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_image_filter_module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_image_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_image_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_image_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -684,217 +693,217 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4">

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="filter" sheetId="1" r:id="rId1"/>
+    <sheet name="phase" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -33,202 +33,597 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ngx_http_not_modified_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_not_modified_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_range_body_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_range_body_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_module</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_echo_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_init</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_addition_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_postconfiguration</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_charset_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_ssi_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_gzip_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_chunked_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_header_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_write_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_xslt_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_image_filter_module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_image_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_image_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_filter_module</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_filter_init</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_header_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_sub_body_filter</t>
+  </si>
+  <si>
+    <t>ngx_http_userid_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_charset_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_ssi_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_gzip_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_image_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_range_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ngx_http_not_modified_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_not_modified_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_not_modified_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_range_body_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_range_body_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_module</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_echo_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_headers_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_init</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_addition_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_postconfiguration</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_charset_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_ssi_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_gzip_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_chunked_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_header_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_xslt_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_image_filter_module</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_image_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_image_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_filter_module</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_body_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_userid_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_addition_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_charset_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_ssi_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_gzip_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_image_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_range_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_READ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SERVER_REWRITE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FIND_CONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>REWRITE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_REWRITE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PREACCESS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ACCESS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_ACCESS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TRY_FILES</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CONTENT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LOG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_find_config_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_try_files_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_content_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_rewrite_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_degradation_handler
+ngx_http_limit_conn_handler
+ngx_http_limit_req_handler
+ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_log_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_access_handler
+ngx_http_auth_basic_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_autoindex_handler
+ngx_http_dav_handler
+ngx_http_gzip_static_handler
+ngx_http_index_handler
+ngx_http_random_index_handler
+ngx_http_static_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 黄色部分仅可以注册一个handler
+2. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +654,54 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +738,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -327,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +801,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -659,7 +1151,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -673,237 +1165,237 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
+      <c r="A4" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="14.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -939,12 +1431,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21">
+      <c r="A1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="79.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:C18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
     <sheet name="phase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="FAQ" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -626,12 +629,55 @@
 2. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>request结构中count字段的作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx的worker进程工作流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_request</t>
+  </si>
+  <si>
+    <t>ngx_http_finalize_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_terminate_request</t>
+  </si>
+  <si>
+    <t>ngx_http_close_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_close_request</t>
+  </si>
+  <si>
+    <t>锁与accept和listen事件的关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_close_connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_free_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +746,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,8 +811,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -774,13 +841,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +920,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,11 +942,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,6 +1025,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -959,6 +1060,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,14 +1236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -1150,7 +1252,7 @@
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1164,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1278,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1290,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1328,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1238,7 +1340,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1266,7 +1368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1280,7 +1382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1396,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1308,7 +1410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1322,7 +1424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1348,7 +1450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -1360,7 +1462,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1374,7 +1476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1386,7 +1488,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1398,25 +1500,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1430,21 +1532,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
@@ -1455,7 +1557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1">
+    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
@@ -1466,7 +1568,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1">
+    <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>69</v>
       </c>
@@ -1477,7 +1579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.25" customHeight="1">
+    <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>70</v>
       </c>
@@ -1488,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1">
+    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>71</v>
       </c>
@@ -1499,7 +1601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
@@ -1510,7 +1612,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="79.5" customHeight="1">
+    <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>73</v>
       </c>
@@ -1521,7 +1623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1">
+    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -1532,7 +1634,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1">
+    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>75</v>
       </c>
@@ -1543,7 +1645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -1554,7 +1656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="112.5" customHeight="1">
+    <row r="11" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>77</v>
       </c>
@@ -1565,7 +1667,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.25" customHeight="1">
+    <row r="12" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -1576,20 +1678,20 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
-    <row r="16" spans="1:3">
+    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>96</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1605,15 +1707,239 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="42.75" customWidth="1"/>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
@@ -10,8 +10,8 @@
     <sheet name="filter" sheetId="1" r:id="rId1"/>
     <sheet name="phase" sheetId="2" r:id="rId2"/>
     <sheet name="FAQ" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -638,46 +638,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ngx_http_finalize_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_terminate_request</t>
+  </si>
+  <si>
+    <t>ngx_http_close_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_close_request</t>
+  </si>
+  <si>
+    <t>锁与accept和listen事件的关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_close_connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_free_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ngx_http_finalize_request</t>
-  </si>
-  <si>
-    <t>ngx_http_finalize_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_terminate_request</t>
-  </si>
-  <si>
-    <t>ngx_http_close_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_close_request</t>
-  </si>
-  <si>
-    <t>锁与accept和listen事件的关系？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_close_connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_free_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_pool_cleanup_s  ngx_pool_cleanup_t;
+struct ngx_pool_cleanup_s {
+    ngx_pool_cleanup_pt   handler;     // 清理函数
+    void                 *data;      // 需要清除的数据
+    ngx_pool_cleanup_t   *next;      // 下一个cleanup callback
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_http_cleanup_s  ngx_http_cleanup_t;
+struct ngx_http_cleanup_s {
+    ngx_http_cleanup_pt               handler;
+    void                             *data;
+    ngx_http_cleanup_t               *next;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_cleanup_add(): 注册清理函数到request的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_pool_cleanup_add()：注册清理函数到内存池pool的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_http_free_request()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_destroy_pool()函数中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,25 +950,31 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,7 +992,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1025,7 +1066,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1060,7 +1100,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1236,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -1252,7 +1291,7 @@
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1266,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1317,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1367,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1379,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1368,7 +1407,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1382,7 +1421,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="9" t="s">
         <v>46</v>
       </c>
@@ -1396,7 +1435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1424,7 +1463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1475,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -1462,7 +1501,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
@@ -1488,7 +1527,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
@@ -1500,25 +1539,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1532,21 +1571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
@@ -1557,7 +1596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="36.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
@@ -1568,7 +1607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="32.25" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>69</v>
       </c>
@@ -1579,7 +1618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="32.25" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>70</v>
       </c>
@@ -1590,7 +1629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30.75" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>71</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>72</v>
       </c>
@@ -1612,7 +1651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="79.5" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>73</v>
       </c>
@@ -1623,7 +1662,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="46.5" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -1634,7 +1673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="34.5" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>75</v>
       </c>
@@ -1645,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="34.5" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="112.5" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>77</v>
       </c>
@@ -1667,7 +1706,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="41.25" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -1678,23 +1717,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1707,152 +1746,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="2" width="49.625" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:5" ht="72" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:5" ht="73.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="22"/>
+    <row r="4" spans="1:5" ht="81" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:5" ht="51" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1865,52 +1904,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="68.625" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>108</v>
-      </c>
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="102" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="25"/>
+    </row>
+    <row r="4" spans="1:2" ht="104.25" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1919,25 +1952,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -54,9 +54,6 @@
     <t>ngx_http_copy_filter_module</t>
   </si>
   <si>
-    <t>ngx_http_copy_filter</t>
-  </si>
-  <si>
     <t>ngx_http_echo_filter_init</t>
   </si>
   <si>
@@ -252,7 +249,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>POST_READ</t>
+      <t>SERVER_REWRITE</t>
     </r>
     <r>
       <rPr>
@@ -280,7 +277,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SERVER_REWRITE</t>
+      <t>FIND_CONFIG</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +305,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>FIND_CONFIG</t>
+      <t>REWRITE</t>
     </r>
     <r>
       <rPr>
@@ -336,7 +333,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>REWRITE</t>
+      <t>POST_REWRITE</t>
     </r>
     <r>
       <rPr>
@@ -364,7 +361,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>POST_REWRITE</t>
+      <t>PREACCESS</t>
     </r>
     <r>
       <rPr>
@@ -392,7 +389,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>PREACCESS</t>
+      <t>ACCESS</t>
     </r>
     <r>
       <rPr>
@@ -420,7 +417,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ACCESS</t>
+      <t>POST_ACCESS</t>
     </r>
     <r>
       <rPr>
@@ -448,7 +445,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>POST_ACCESS</t>
+      <t>TRY_FILES</t>
     </r>
     <r>
       <rPr>
@@ -476,7 +473,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>TRY_FILES</t>
+      <t>CONTENT</t>
     </r>
     <r>
       <rPr>
@@ -504,7 +501,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>CONTENT</t>
+      <t>LOG</t>
     </r>
     <r>
       <rPr>
@@ -520,34 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LOG</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>checker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,19 +569,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_degradation_handler
-ngx_http_limit_conn_handler
-ngx_http_limit_req_handler
-ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_log_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_access_handler
-ngx_http_auth_basic_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,6 +662,54 @@
   </si>
   <si>
     <t>释放在ngx_destroy_pool()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_rewrite_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_degradation_handler
+ngx_http_limit_conn_handler
+ngx_http_limit_req_handler
+ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_READ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_access_handler
+ngx_http_auth_basic_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,17 +970,17 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,7 +1284,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1310,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1326,7 +1331,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
@@ -1338,205 +1343,205 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1574,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1587,153 +1592,153 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.25" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.25" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="79.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="112.5" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.25" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1762,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="3"/>
@@ -1771,10 +1776,10 @@
     </row>
     <row r="2" spans="1:5" ht="72" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1782,7 +1787,7 @@
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="3"/>
@@ -1791,7 +1796,7 @@
     </row>
     <row r="4" spans="1:5" ht="81" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="3"/>
@@ -1907,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1918,32 +1923,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>113</v>
+      <c r="A1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>114</v>
+      <c r="A2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" customHeight="1">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="25"/>
+      <c r="A3" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="23"/>
     </row>
     <row r="4" spans="1:2" ht="104.25" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="25"/>
+      <c r="A4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1956,7 +1961,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1966,37 +1971,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -712,12 +712,75 @@
 ngx_http_auth_basic_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ngx_http_core_try_files_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter模块的入口？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_send_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_output_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ngx_http_send_header   -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>header filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">入口
+ngx_http_output_filter   -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>body filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +864,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -858,7 +928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -881,19 +951,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,12 +1018,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -981,6 +1032,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1568,6 +1625,16 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1579,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1697,7 +1764,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="112.5" customHeight="1">
@@ -1724,21 +1791,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1755,7 +1822,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1769,7 +1836,7 @@
       <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1778,7 +1845,7 @@
       <c r="A2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="3"/>
@@ -1789,114 +1856,118 @@
       <c r="A3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="81" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1923,32 +1994,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="104.25" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2014,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -1027,17 +1027,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,21 +1791,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1836,7 +1836,7 @@
       <c r="A1" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1845,7 +1845,7 @@
       <c r="A2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="3"/>
@@ -1856,7 +1856,7 @@
       <c r="A3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1865,7 +1865,7 @@
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1874,7 +1874,7 @@
       <c r="A5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="3"/>
@@ -1883,91 +1883,91 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18"/>
-      <c r="B7" s="25"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="18"/>
-      <c r="B8" s="25"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="18"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18"/>
-      <c r="B10" s="25"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="18"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="18"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="18"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="18"/>
-      <c r="B17" s="25"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18"/>
-      <c r="B18" s="25"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2085,7 +2085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>ngx_http_echo_header_filter</t>
   </si>
   <si>
-    <t>ngx_http_echo_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_headers_filter_init</t>
   </si>
   <si>
@@ -773,6 +770,10 @@
       </rPr>
       <t>入口</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_echo_body_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1372,7 +1373,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1388,7 +1389,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
@@ -1400,7 +1401,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
@@ -1414,191 +1415,191 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="14.25">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1627,12 +1628,12 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1647,7 +1648,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1659,140 +1660,140 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.25" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.25" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="79.5" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="112.5" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.25" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
       <c r="A16" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -1834,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3"/>
@@ -1843,10 +1844,10 @@
     </row>
     <row r="2" spans="1:5" ht="72" customHeight="1">
       <c r="A2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1854,7 +1855,7 @@
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="3"/>
@@ -1863,7 +1864,7 @@
     </row>
     <row r="4" spans="1:5" ht="81" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
@@ -1872,10 +1873,10 @@
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1995,29 +1996,29 @@
   <sheetData>
     <row r="1" spans="1:2" ht="37.5" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="104.25" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="21"/>
     </row>
@@ -2031,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2042,37 +2043,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="FAQ" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="upstream" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <t>ngx_http_echo_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. upstream模块在初始化时，创建 ngx_http_upstream_main_conf_t 结构体。
+2. 在配置文件中，遇到"fastcgi_pass"、"memcached_pass"、"proxy_pass"等指令时，解析的过程中通过ngx_http_upstream_add()函数向 ngx_http_upstream_main_conf_t 结构体中添加 ngx_http_upstream_srv_conf_t
+3. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -952,13 +958,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,6 +1082,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,6 +1107,58 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9172575" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1341,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2084,13 +2191,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1"/>
+    <row r="22" spans="1:6" ht="122.25" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:F22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -777,9 +777,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. upstream模块在初始化时，创建 ngx_http_upstream_main_conf_t 结构体。
-2. 在配置文件中，遇到"fastcgi_pass"、"memcached_pass"、"proxy_pass"等指令时，解析的过程中通过ngx_http_upstream_add()函数向 ngx_http_upstream_main_conf_t 结构体中添加 ngx_http_upstream_srv_conf_t
+    <r>
+      <t xml:space="preserve">1. upstream模块在初始化时，创建 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_main_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 结构体。
+2. 在配置文件中，遇到"fastcgi_pass"、"memcached_pass"、"proxy_pass"等指令时，解析的过程中通过ngx_http_upstream_add()函数向 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_main_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 结构体中添加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_srv_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3. </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +855,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,6 +945,23 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1083,8 +1168,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1092,8 +1177,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,6 +1227,53 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9172575" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9324975" y="0"/>
+          <a:ext cx="10410825" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2191,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2203,70 +2335,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1"/>
-    <row r="22" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A22" s="30" t="s">
+    <row r="26" spans="1:6" s="30" customFormat="1"/>
+    <row r="30" spans="1:6" ht="122.25" customHeight="1">
+      <c r="A30" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A30:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -849,6 +849,32 @@
 3. </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinit_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_header</t>
+  </si>
+  <si>
+    <t>abort_request</t>
+  </si>
+  <si>
+    <t>finalize_request</t>
+  </si>
+  <si>
+    <t>rewrite_redirect</t>
+  </si>
+  <si>
+    <t>rewrite_cookie</t>
+  </si>
+  <si>
+    <t>create_key</t>
   </si>
 </sst>
 </file>
@@ -1162,6 +1188,9 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,9 +1205,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1205,7 +1231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2031,21 +2057,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2224,7 +2250,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2323,28 +2349,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1"/>
-    <row r="26" spans="1:6" s="30" customFormat="1"/>
+    <row r="26" spans="1:6" s="25" customFormat="1"/>
     <row r="30" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -876,12 +876,21 @@
   <si>
     <t>create_key</t>
   </si>
+  <si>
+    <t>input_filter_ctx</t>
+  </si>
+  <si>
+    <t>input_filter</t>
+  </si>
+  <si>
+    <t>input_filter_init</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +997,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1112,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,6 +1228,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,7 +1260,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2349,15 +2378,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1"/>
@@ -2372,43 +2401,58 @@
       <c r="E30" s="29"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" ht="16.5">
+      <c r="A33" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5">
+      <c r="A34" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5">
+      <c r="A35" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5">
+      <c r="A36" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="37" spans="1:1" ht="16.5">
+      <c r="A37" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="38" spans="1:1" ht="16.5">
+      <c r="A38" s="32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="39" spans="1:1" ht="16.5">
+      <c r="A39" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="40" spans="1:1" ht="16.5">
+      <c r="A40" s="32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="41" spans="1:1" ht="16.5">
+      <c r="A41" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="42" spans="1:1" ht="16.5">
+      <c r="A42" s="32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="43" spans="1:1" ht="16.5">
+      <c r="A43" s="32" t="s">
         <v>128</v>
       </c>
     </row>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -884,6 +884,14 @@
   </si>
   <si>
     <t>input_filter_init</t>
+  </si>
+  <si>
+    <t>什么情况下，request请求可以被复用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream与proxy怎样关联起来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,6 +1222,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,12 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,21 +2094,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2116,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2176,15 +2184,19 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="B7" s="23"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2380,7 +2392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2392,67 +2404,67 @@
     <row r="1" ht="24" customHeight="1"/>
     <row r="26" spans="1:6" s="25" customFormat="1"/>
     <row r="30" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="33" spans="1:1" ht="16.5">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="26" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="27" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="27" t="s">
         <v>128</v>
       </c>
     </row>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -777,6 +777,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>create_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinit_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_header</t>
+  </si>
+  <si>
+    <t>abort_request</t>
+  </si>
+  <si>
+    <t>finalize_request</t>
+  </si>
+  <si>
+    <t>rewrite_redirect</t>
+  </si>
+  <si>
+    <t>rewrite_cookie</t>
+  </si>
+  <si>
+    <t>create_key</t>
+  </si>
+  <si>
+    <t>input_filter_ctx</t>
+  </si>
+  <si>
+    <t>input_filter</t>
+  </si>
+  <si>
+    <t>input_filter_init</t>
+  </si>
+  <si>
+    <t>什么情况下，request请求可以被复用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream与proxy怎样关联起来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. upstream模块在初始化时，创建 </t>
     </r>
@@ -851,46 +894,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reinit_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_header</t>
-  </si>
-  <si>
-    <t>abort_request</t>
-  </si>
-  <si>
-    <t>finalize_request</t>
-  </si>
-  <si>
-    <t>rewrite_redirect</t>
-  </si>
-  <si>
-    <t>rewrite_cookie</t>
-  </si>
-  <si>
-    <t>create_key</t>
-  </si>
-  <si>
-    <t>input_filter_ctx</t>
-  </si>
-  <si>
-    <t>input_filter</t>
-  </si>
-  <si>
-    <t>input_filter_init</t>
-  </si>
-  <si>
-    <t>什么情况下，request请求可以被复用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upstream与proxy怎样关联起来的？</t>
+    <t>在解析配置文件时，遇到"proxy_pass"和"upstream"指令时，都将调用ngx_http_upstream_add()函数添加ngx_http_upstream_srv_conf_t到
+ngx_http_upstream_main_conf_t中。如果"proxy_pass"指令指定的后端服务器名称与
+"upstream"指令指定的后端服务器名称一致时，将使用同一个ngx_http_upstream_srv_conf_t元素。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1248,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2125,14 +2134,13 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="2" max="5" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1">
@@ -2186,18 +2194,20 @@
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="55.5" customHeight="1">
+    <row r="7" spans="1:5" ht="119.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>135</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2392,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2405,7 +2415,7 @@
     <row r="26" spans="1:6" s="25" customFormat="1"/>
     <row r="30" spans="1:6" ht="122.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2415,57 +2425,57 @@
     </row>
     <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
       <c r="A37" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
       <c r="A38" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
       <c r="A39" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5">
       <c r="A40" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5">
       <c r="A41" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5">
       <c r="A42" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5">
       <c r="A43" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -897,6 +897,39 @@
     <t>在解析配置文件时，遇到"proxy_pass"和"upstream"指令时，都将调用ngx_http_upstream_add()函数添加ngx_http_upstream_srv_conf_t到
 ngx_http_upstream_main_conf_t中。如果"proxy_pass"指令指定的后端服务器名称与
 "upstream"指令指定的后端服务器名称一致时，将使用同一个ngx_http_upstream_srv_conf_t元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_upstream_main_conf_t</t>
+  </si>
+  <si>
+    <t>(upstream管理所有server的总结构)</t>
+  </si>
+  <si>
+    <t>ngx_http_upstream_t</t>
+  </si>
+  <si>
+    <t>(与后端服务器通信使用的总结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(与后端服务器通信模块的配置结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       |-- ngx_http_upstream_srv_conf_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       |-- ngx_http_upstream_conf_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(upstream管理针对后端单个server管理使用的结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream是怎样将后端服务器反馈的数据返回给客户端的？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1004,15 +1037,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
@@ -1022,6 +1046,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1231,7 +1263,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1248,9 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,8 +1308,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1325,8 +1357,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2103,21 +2135,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2133,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2205,15 +2237,17 @@
       <c r="A7" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="27" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:5" ht="108.75" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2301,7 +2335,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2349,7 +2383,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2400,87 +2434,119 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F30"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.625" customWidth="1"/>
+    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1"/>
-    <row r="26" spans="1:6" s="25" customFormat="1"/>
-    <row r="30" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A30" s="30" t="s">
+    <row r="24" spans="1:6" ht="21" customHeight="1">
+      <c r="A24" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="122.25" customHeight="1">
+      <c r="A29" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32" s="25" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="16.5">
-      <c r="A33" s="26" t="s">
-        <v>131</v>
+      <c r="A33" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5">
-      <c r="A34" s="26" t="s">
-        <v>130</v>
+      <c r="A34" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5">
-      <c r="A36" s="27" t="s">
-        <v>128</v>
+      <c r="A36" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5">
-      <c r="A37" s="27" t="s">
-        <v>121</v>
+      <c r="A37" s="26" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5">
-      <c r="A38" s="27" t="s">
-        <v>122</v>
+      <c r="A38" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5">
-      <c r="A39" s="27" t="s">
-        <v>123</v>
+      <c r="A39" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5">
-      <c r="A40" s="27" t="s">
-        <v>124</v>
+      <c r="A40" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5">
-      <c r="A41" s="27" t="s">
-        <v>125</v>
+      <c r="A41" s="26" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5">
-      <c r="A42" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="16.5">
-      <c r="A43" s="27" t="s">
+      <c r="A42" s="26" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A29:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
     <sheet name="phase" sheetId="2" r:id="rId2"/>
-    <sheet name="FAQ" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
-    <sheet name="upstream" sheetId="6" r:id="rId6"/>
+    <sheet name="PLAN" sheetId="7" r:id="rId3"/>
+    <sheet name="FAQ" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="upstream" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -930,6 +931,14 @@
   </si>
   <si>
     <t>upstream是怎样将后端服务器反馈的数据返回给客户端的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_buffers设置的缓冲区个数和大小对响应有什么影响？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 整理清楚 ngx_output_chain（）函数的流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1068,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,6 +1120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1269,6 +1284,15 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,6 +1307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2135,21 +2162,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2163,10 +2190,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.5" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="37">
+        <v>41291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" customHeight="1">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2253,8 +2365,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:5" ht="75" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2330,7 +2444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2378,7 +2492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -2432,7 +2546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -2480,14 +2594,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="25" t="s">

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -941,12 +941,17 @@
     <t>1. 整理清楚 ngx_output_chain（）函数的流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>proxy_cache_valid指定的缓存时间与
+proxy_cache_path中指定的不活跃时间是否冲突？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,7 +1201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,6 +1298,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,8 +1316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1425,7 +1433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1499,6 +1507,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1533,6 +1542,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1708,14 +1718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -1724,7 +1734,7 @@
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1750,7 +1760,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1810,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25">
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1812,7 +1822,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25">
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
@@ -1840,7 +1850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -1908,7 +1918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1944,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +1970,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1972,36 +1982,36 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2014,21 +2024,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1">
+    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>113</v>
       </c>
@@ -2050,7 +2060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1">
+    <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32.25" customHeight="1">
+    <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>67</v>
       </c>
@@ -2072,7 +2082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1">
+    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1">
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>69</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="79.5" customHeight="1">
+    <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
@@ -2105,7 +2115,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1">
+    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
@@ -2116,7 +2126,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1">
+    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>72</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>73</v>
       </c>
@@ -2138,7 +2148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="112.5" customHeight="1">
+    <row r="11" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
@@ -2149,7 +2159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.25" customHeight="1">
+    <row r="12" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
@@ -2160,23 +2170,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
-    <row r="16" spans="1:3">
-      <c r="A16" s="32" t="s">
+    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2189,80 +2199,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1">
+    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="32">
         <v>41291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" customHeight="1">
+    <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
     </row>
@@ -2274,20 +2284,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="5" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>92</v>
       </c>
@@ -2296,7 +2306,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1">
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>98</v>
       </c>
@@ -2307,7 +2317,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1">
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>93</v>
       </c>
@@ -2316,7 +2326,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="81" customHeight="1">
+    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>100</v>
       </c>
@@ -2325,7 +2335,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1">
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>116</v>
       </c>
@@ -2336,7 +2346,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="59.25" customHeight="1">
+    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>132</v>
       </c>
@@ -2345,7 +2355,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="119.25" customHeight="1">
+    <row r="7" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>133</v>
       </c>
@@ -2356,7 +2366,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="108.75" customHeight="1">
+    <row r="8" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>144</v>
       </c>
@@ -2365,7 +2375,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1">
+    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>145</v>
       </c>
@@ -2374,63 +2384,65 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="38" t="s">
+        <v>147</v>
+      </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="3"/>
@@ -2445,20 +2457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="68.625" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>106</v>
       </c>
@@ -2466,7 +2478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39" customHeight="1">
+    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
         <v>107</v>
       </c>
@@ -2474,13 +2486,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="102" customHeight="1">
+    <row r="3" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:2" ht="104.25" customHeight="1">
+    <row r="4" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>105</v>
       </c>
@@ -2493,49 +2505,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2547,21 +2559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
     <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1"/>
-    <row r="24" spans="1:6" ht="21" customHeight="1">
+    <row r="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>136</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
         <v>141</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
         <v>138</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
         <v>142</v>
       </c>
@@ -2593,67 +2605,67 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.5">
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16.5">
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.5">
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5">
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.5">
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.5">
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.5">
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16.5">
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16.5">
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16.5">
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
         <v>127</v>
       </c>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -944,6 +944,10 @@
   <si>
     <t>proxy_cache_valid指定的缓存时间与
 proxy_cache_path中指定的不活跃时间是否冲突？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http协议头中expires头什么时候会被设置？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,6 +1305,9 @@
     <xf numFmtId="14" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,9 +1322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2172,21 +2176,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2287,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2385,7 +2389,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B10" s="23"/>
@@ -2393,8 +2397,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2606,14 +2612,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -40,9 +40,6 @@
     <t>ngx_http_not_modified_filter_module</t>
   </si>
   <si>
-    <t>ngx_http_not_modified_header_filter</t>
-  </si>
-  <si>
     <t>ngx_http_range_body_filter_init</t>
   </si>
   <si>
@@ -61,18 +58,12 @@
     <t>ngx_http_echo_module</t>
   </si>
   <si>
-    <t>ngx_http_echo_header_filter</t>
-  </si>
-  <si>
     <t>ngx_http_headers_filter_init</t>
   </si>
   <si>
     <t>ngx_http_headers_filter_module</t>
   </si>
   <si>
-    <t>ngx_http_headers_filter</t>
-  </si>
-  <si>
     <t>ngx_http_userid_init</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>ngx_http_addition_filter_module</t>
   </si>
   <si>
-    <t>ngx_http_addition_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_charset_postconfiguration</t>
   </si>
   <si>
@@ -130,9 +118,6 @@
     <t>ngx_http_chunked_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_chunked_header_filter</t>
-  </si>
-  <si>
     <t>ngx_http_chunked_body_filter</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>ngx_http_header_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_header_filter</t>
-  </si>
-  <si>
     <t>ngx_http_header_filter_module</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>ngx_http_xslt_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_xslt_header_filter</t>
-  </si>
-  <si>
     <t>ngx_http_xslt_body_filter</t>
   </si>
   <si>
@@ -185,41 +164,15 @@
     <t>ngx_http_sub_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_sub_header_filter</t>
-  </si>
-  <si>
-    <t>ngx_http_sub_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_userid_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_addition_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_charset_header_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_ssi_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_gzip_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_image_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,11 +516,507 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_log_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 黄色部分仅可以注册一个handler
+2. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request结构中count字段的作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx的worker进程工作流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_terminate_request</t>
+  </si>
+  <si>
+    <t>ngx_http_close_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_close_request</t>
+  </si>
+  <si>
+    <t>锁与accept和listen事件的关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_close_connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_free_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_pool_cleanup_s  ngx_pool_cleanup_t;
+struct ngx_pool_cleanup_s {
+    ngx_pool_cleanup_pt   handler;     // 清理函数
+    void                 *data;      // 需要清除的数据
+    ngx_pool_cleanup_t   *next;      // 下一个cleanup callback
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_http_cleanup_s  ngx_http_cleanup_t;
+struct ngx_http_cleanup_s {
+    ngx_http_cleanup_pt               handler;
+    void                             *data;
+    ngx_http_cleanup_t               *next;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_cleanup_add(): 注册清理函数到request的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_pool_cleanup_add()：注册清理函数到内存池pool的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_http_free_request()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_destroy_pool()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_rewrite_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_READ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_access_handler
+ngx_http_auth_basic_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_try_files_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter模块的入口？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_send_header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_output_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ngx_http_send_header   -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>header filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">入口
+ngx_http_output_filter   -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>body filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_echo_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinit_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_header</t>
+  </si>
+  <si>
+    <t>abort_request</t>
+  </si>
+  <si>
+    <t>finalize_request</t>
+  </si>
+  <si>
+    <t>rewrite_redirect</t>
+  </si>
+  <si>
+    <t>rewrite_cookie</t>
+  </si>
+  <si>
+    <t>create_key</t>
+  </si>
+  <si>
+    <t>input_filter_ctx</t>
+  </si>
+  <si>
+    <t>input_filter</t>
+  </si>
+  <si>
+    <t>input_filter_init</t>
+  </si>
+  <si>
+    <t>什么情况下，request请求可以被复用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream与proxy怎样关联起来的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. upstream模块在初始化时，创建 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_main_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 结构体。
+2. 在配置文件中，遇到"fastcgi_pass"、"memcached_pass"、"proxy_pass"等指令时，解析的过程中通过ngx_http_upstream_add()函数向 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_main_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 结构体中添加 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ngx_http_upstream_srv_conf_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在解析配置文件时，遇到"proxy_pass"和"upstream"指令时，都将调用ngx_http_upstream_add()函数添加ngx_http_upstream_srv_conf_t到
+ngx_http_upstream_main_conf_t中。如果"proxy_pass"指令指定的后端服务器名称与
+"upstream"指令指定的后端服务器名称一致时，将使用同一个ngx_http_upstream_srv_conf_t元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_upstream_main_conf_t</t>
+  </si>
+  <si>
+    <t>(upstream管理所有server的总结构)</t>
+  </si>
+  <si>
+    <t>ngx_http_upstream_t</t>
+  </si>
+  <si>
+    <t>(与后端服务器通信使用的总结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(与后端服务器通信模块的配置结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       |-- ngx_http_upstream_srv_conf_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       |-- ngx_http_upstream_conf_t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(upstream管理针对后端单个server管理使用的结构)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upstream是怎样将后端服务器反馈的数据返回给客户端的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output_buffers设置的缓冲区个数和大小对响应有什么影响？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 整理清楚 ngx_output_chain（）函数的流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy_cache_valid指定的缓存时间与
+proxy_cache_path中指定的不活跃时间是否冲突？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http协议头中expires头什么时候会被设置？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端请求被处理时nginx设置的handler句柄：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen描述符被监听时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_event_accept</t>
+  </si>
+  <si>
+    <t>监听描述符会触发写事件吗？在nginx代码中未发
+现设置写事件的处理句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已连接的客户端描述符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_init_request</t>
+  </si>
+  <si>
+    <t>ngx_http_empty_handler</t>
+  </si>
+  <si>
+    <t>ngx_http_init_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_process_request_line</t>
+  </si>
+  <si>
+    <t>rev-&gt;handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wev-&gt;handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read_event_handler
+write_event_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read = ngx_http_block_reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_process_request_headers</t>
+  </si>
+  <si>
+    <t>ngx_http_process_request_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_process_request</t>
+  </si>
+  <si>
+    <t>处理接收到的请求时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_request_handler</t>
+  </si>
+  <si>
+    <t>ngx_http_handler</t>
+  </si>
+  <si>
+    <t>write = ngx_http_core_run_phases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始运行phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_degradation_handler
+ngx_http_limit_conn_handler
+ngx_http_limit_req_handler
+ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_echo_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_sub_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_xslt_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_ssi_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_gzip_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_chunked_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_sub_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -580,374 +1029,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 黄色部分仅可以注册一个handler
-2. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request结构中count字段的作用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx的worker进程工作流程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_finalize_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_terminate_request</t>
-  </si>
-  <si>
-    <t>ngx_http_close_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_close_request</t>
-  </si>
-  <si>
-    <t>锁与accept和listen事件的关系？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_close_connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_free_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_finalize_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typedef struct ngx_pool_cleanup_s  ngx_pool_cleanup_t;
-struct ngx_pool_cleanup_s {
-    ngx_pool_cleanup_pt   handler;     // 清理函数
-    void                 *data;      // 需要清除的数据
-    ngx_pool_cleanup_t   *next;      // 下一个cleanup callback
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typedef struct ngx_http_cleanup_s  ngx_http_cleanup_t;
-struct ngx_http_cleanup_s {
-    ngx_http_cleanup_pt               handler;
-    void                             *data;
-    ngx_http_cleanup_t               *next;
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_cleanup_add(): 注册清理函数到request的cleanup链表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_pool_cleanup_add()：注册清理函数到内存池pool的cleanup链表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放在ngx_http_free_request()函数中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放在ngx_destroy_pool()函数中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_rewrite_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_degradation_handler
-ngx_http_limit_conn_handler
-ngx_http_limit_req_handler
-ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>POST_READ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_access_handler
-ngx_http_auth_basic_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_try_files_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter模块的入口？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_send_header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_output_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ngx_http_send_header   -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>header filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">入口
-ngx_http_output_filter   -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>body filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_echo_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reinit_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_header</t>
-  </si>
-  <si>
-    <t>abort_request</t>
-  </si>
-  <si>
-    <t>finalize_request</t>
-  </si>
-  <si>
-    <t>rewrite_redirect</t>
-  </si>
-  <si>
-    <t>rewrite_cookie</t>
-  </si>
-  <si>
-    <t>create_key</t>
-  </si>
-  <si>
-    <t>input_filter_ctx</t>
-  </si>
-  <si>
-    <t>input_filter</t>
-  </si>
-  <si>
-    <t>input_filter_init</t>
-  </si>
-  <si>
-    <t>什么情况下，request请求可以被复用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upstream与proxy怎样关联起来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. upstream模块在初始化时，创建 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ngx_http_upstream_main_conf_t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 结构体。
-2. 在配置文件中，遇到"fastcgi_pass"、"memcached_pass"、"proxy_pass"等指令时，解析的过程中通过ngx_http_upstream_add()函数向 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ngx_http_upstream_main_conf_t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 结构体中添加 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ngx_http_upstream_srv_conf_t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在解析配置文件时，遇到"proxy_pass"和"upstream"指令时，都将调用ngx_http_upstream_add()函数添加ngx_http_upstream_srv_conf_t到
-ngx_http_upstream_main_conf_t中。如果"proxy_pass"指令指定的后端服务器名称与
-"upstream"指令指定的后端服务器名称一致时，将使用同一个ngx_http_upstream_srv_conf_t元素。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_upstream_main_conf_t</t>
-  </si>
-  <si>
-    <t>(upstream管理所有server的总结构)</t>
-  </si>
-  <si>
-    <t>ngx_http_upstream_t</t>
-  </si>
-  <si>
-    <t>(与后端服务器通信使用的总结构)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(与后端服务器通信模块的配置结构)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       |-- ngx_http_upstream_srv_conf_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       |-- ngx_http_upstream_conf_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(upstream管理针对后端单个server管理使用的结构)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upstream是怎样将后端服务器反馈的数据返回给客户端的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output_buffers设置的缓冲区个数和大小对响应有什么影响？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 整理清楚 ngx_output_chain（）函数的流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>proxy_cache_valid指定的缓存时间与
-proxy_cache_path中指定的不活跃时间是否冲突？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http协议头中expires头什么时候会被设置？</t>
+    <t>ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_not_modified_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_header_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +1049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,8 +1170,34 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,6 +1255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,7 +1331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1309,9 +1435,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1725,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1757,233 +1901,233 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -2012,12 +2156,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2176,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2044,153 +2188,153 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2207,7 +2351,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2218,7 +2362,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B1" s="32">
         <v>41291</v>
@@ -2291,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2303,7 +2447,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3"/>
@@ -2312,10 +2456,10 @@
     </row>
     <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2323,7 +2467,7 @@
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="3"/>
@@ -2332,7 +2476,7 @@
     </row>
     <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
@@ -2341,10 +2485,10 @@
     </row>
     <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2352,7 +2496,7 @@
     </row>
     <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
@@ -2361,10 +2505,10 @@
     </row>
     <row r="7" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2372,7 +2516,7 @@
     </row>
     <row r="8" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
@@ -2381,7 +2525,7 @@
     </row>
     <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
@@ -2390,7 +2534,7 @@
     </row>
     <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
@@ -2399,15 +2543,17 @@
     </row>
     <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="33" t="s">
+        <v>134</v>
+      </c>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2467,7 +2613,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2478,29 +2624,29 @@
   <sheetData>
     <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B4" s="21"/>
     </row>
@@ -2512,55 +2658,176 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2568,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
@@ -2581,99 +2848,99 @@
     <row r="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
+      <c r="A29" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="25" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -79,9 +79,6 @@
     <t>ngx_http_charset_postconfiguration</t>
   </si>
   <si>
-    <t>ngx_http_charset_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_charset_filter_module</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>ngx_http_gzip_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_gzip_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_gzip_filter_module</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>ngx_http_chunked_filter_init</t>
   </si>
   <si>
-    <t>ngx_http_chunked_body_filter</t>
-  </si>
-  <si>
     <t>ngx_http_chunked_filter_module</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
   </si>
   <si>
     <t>ngx_http_write_filter_init</t>
-  </si>
-  <si>
-    <t>ngx_http_write_filter</t>
   </si>
   <si>
     <t>ngx_http_write_filter_module</t>
@@ -965,58 +953,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ngx_http_echo_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_sub_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_xslt_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_ssi_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_gzip_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_range_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_chunked_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_copy_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_sub_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_postpone_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_headers_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_addition_header_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ngx_http_degradation_handler
 ngx_http_limit_conn_handler
 ngx_http_limit_req_handler
 ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_echo_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_sub_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_xslt_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_ssi_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_gzip_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_range_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_chunked_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_copy_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_addition_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_sub_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_postpone_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1029,27 +1029,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_not_modified_header_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_headers_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_addition_header_filter</t>
+    <t>header Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body Y/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否处理sub_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_chunked_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_gzip_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_charset_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read = ngx_http_block_reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_write_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,8 +1228,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,6 +1309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,6 +1504,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1466,6 +1523,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1581,7 +1647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1655,7 +1721,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1690,7 +1755,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1866,23 +1930,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1895,20 +1960,32 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E2" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1917,10 +1994,16 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1929,10 +2012,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1940,13 +2027,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1954,11 +2043,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E6" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1966,11 +2059,15 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -1978,193 +2075,252 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25">
+      <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="C17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E20:F21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2172,169 +2328,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="38.625" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30.75" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C6" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="79.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C8" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="C9" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="C10" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="112.5" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="C11" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="41.25" customHeight="1">
+      <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2347,80 +2503,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="40.5" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B1" s="32">
         <v>41291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.5" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
     </row>
@@ -2432,169 +2588,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="5" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="72" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="73.5" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="81" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="59.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="119.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="108.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="71.25" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="52.5" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="66.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="3"/>
@@ -2609,44 +2765,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="68.625" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="102" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="104.25" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="21"/>
     </row>
@@ -2657,14 +2813,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
@@ -2673,148 +2829,148 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A11" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="45" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="35.25" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1">
       <c r="A17" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A18" s="34" t="s">
         <v>149</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
-        <v>153</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39.75" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2832,115 +2988,115 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
     <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24" customHeight="1"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1">
       <c r="A24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6" ht="122.25" customHeight="1">
+      <c r="A29" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5">
+      <c r="A37" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5">
+      <c r="A38" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5">
+      <c r="A39" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5">
+      <c r="A40" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="26" t="s">
+    <row r="41" spans="1:1" ht="16.5">
+      <c r="A41" s="26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="26" t="s">
+    <row r="42" spans="1:1" ht="16.5">
+      <c r="A42" s="26" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="26" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
     <sheet name="upstream" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -879,11 +880,6 @@
     <t>ngx_event_accept</t>
   </si>
   <si>
-    <t>监听描述符会触发写事件吗？在nginx代码中未发
-现设置写事件的处理句柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1057,23 +1053,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ngx_http_gzip_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_charset_body_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read = ngx_http_block_reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_write_filter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ngx_http_chunked_body_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_gzip_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_charset_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>read = ngx_http_block_reading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_write_filter</t>
+    <t>客户端的连接于后端服务器的连接有直接关系吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听描述符会触发写事件吗？在nginx代码中未发
+现设置写事件的处理句柄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1511,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1524,13 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1961,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
@@ -1975,14 +1983,14 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>171</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
@@ -1996,11 +2004,11 @@
       <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="40" t="s">
         <v>171</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -2012,12 +2020,12 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F4" s="48"/>
+        <v>157</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="8" t="s">
@@ -2027,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>98</v>
@@ -2043,13 +2051,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="48"/>
+      <c r="E6" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="7" t="s">
@@ -2062,10 +2070,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="48"/>
+      <c r="E7" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="7" t="s">
@@ -2075,16 +2083,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25">
@@ -2095,15 +2103,15 @@
         <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="48"/>
+        <v>159</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="9" t="s">
@@ -2118,10 +2126,10 @@
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="48"/>
+      <c r="E10" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="9" t="s">
@@ -2131,15 +2139,15 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="48"/>
+      <c r="E11" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="7" t="s">
@@ -2152,12 +2160,12 @@
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="48"/>
+        <v>174</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="7" t="s">
@@ -2167,15 +2175,15 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="48"/>
+      <c r="E13" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="7" t="s">
@@ -2186,12 +2194,12 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="48"/>
+        <v>160</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="7" t="s">
@@ -2201,15 +2209,15 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="E15" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="7" t="s">
@@ -2219,13 +2227,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="48"/>
+      <c r="E16" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="7" t="s">
@@ -2235,15 +2243,15 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="48"/>
+        <v>177</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="7" t="s">
@@ -2253,13 +2261,13 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="48"/>
+      <c r="E18" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="7" t="s">
@@ -2270,30 +2278,30 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="48"/>
+        <v>176</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="47"/>
+      <c r="E20" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
@@ -2332,7 +2340,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2361,7 +2369,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.25" customHeight="1">
@@ -2416,7 +2424,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="46.5" customHeight="1">
@@ -2460,7 +2468,7 @@
         <v>66</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.25" customHeight="1">
@@ -2476,21 +2484,21 @@
     </row>
     <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
     <row r="16" spans="1:3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2592,7 +2600,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2708,15 +2716,17 @@
     </row>
     <row r="12" spans="1:5" ht="66.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2817,7 +2827,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2865,27 +2875,27 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="45" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
@@ -2896,78 +2906,78 @@
         <v>129</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
         <v>133</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>134</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="35.25" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="40.5" customHeight="1">
       <c r="A17" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>146</v>
-      </c>
       <c r="C17" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="36.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.75" customHeight="1">
@@ -2991,7 +3001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
@@ -3035,14 +3045,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="45"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="25" t="s">
@@ -3108,4 +3118,30 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -1079,6 +1079,11 @@
   <si>
     <t>监听描述符会触发写事件吗？在nginx代码中未发
 现设置写事件的处理句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r-&gt;host_start 字段在解析客户端的请求时没有
+设置，检查这个问题是不是一个BUG问题？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2599,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2732,8 +2737,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>180</v>
+      </c>
       <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3124,8 +3131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -217,7 +217,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>FIND_CONFIG</t>
+      <t>REWRITE</t>
     </r>
     <r>
       <rPr>
@@ -245,7 +245,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>REWRITE</t>
+      <t>PREACCESS</t>
     </r>
     <r>
       <rPr>
@@ -273,7 +273,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>POST_REWRITE</t>
+      <t>TRY_FILES</t>
     </r>
     <r>
       <rPr>
@@ -301,7 +301,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>PREACCESS</t>
+      <t>CONTENT</t>
     </r>
     <r>
       <rPr>
@@ -329,7 +329,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ACCESS</t>
+      <t>LOG</t>
     </r>
     <r>
       <rPr>
@@ -345,6 +345,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>checker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_find_config_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_try_files_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_rewrite_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request结构中count字段的作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx的worker进程工作流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_terminate_request</t>
+  </si>
+  <si>
+    <t>ngx_http_close_connection</t>
+  </si>
+  <si>
+    <t>ngx_http_close_request</t>
+  </si>
+  <si>
+    <t>锁与accept和listen事件的关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_close_connection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_free_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_pool_cleanup_s  ngx_pool_cleanup_t;
+struct ngx_pool_cleanup_s {
+    ngx_pool_cleanup_pt   handler;     // 清理函数
+    void                 *data;      // 需要清除的数据
+    ngx_pool_cleanup_t   *next;      // 下一个cleanup callback
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef struct ngx_http_cleanup_s  ngx_http_cleanup_t;
+struct ngx_http_cleanup_s {
+    ngx_http_cleanup_pt               handler;
+    void                             *data;
+    ngx_http_cleanup_t               *next;
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_cleanup_add(): 注册清理函数到request的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_pool_cleanup_add()：注册清理函数到内存池pool的cleanup链表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_http_free_request()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放在ngx_destroy_pool()函数中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_rewrite_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>NGX_HTTP_</t>
     </r>
@@ -357,7 +479,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>POST_ACCESS</t>
+      <t>POST_READ</t>
     </r>
     <r>
       <rPr>
@@ -370,262 +492,6 @@
       </rPr>
       <t>_PHASE</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TRY_FILES</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CONTENT</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LOG</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_generic_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_rewrite_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_find_config_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_post_rewrite_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_access_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_post_access_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_try_files_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_content_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_generic_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_rewrite_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_log_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 黄色部分仅可以注册一个handler
-2. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request结构中count字段的作用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nginx的worker进程工作流程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_finalize_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_terminate_request</t>
-  </si>
-  <si>
-    <t>ngx_http_close_connection</t>
-  </si>
-  <si>
-    <t>ngx_http_close_request</t>
-  </si>
-  <si>
-    <t>锁与accept和listen事件的关系？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个worker进程在接收客户端的请求前先上锁，上锁成功的worker进程将listen事件添加到epoll事件队列中。如果上锁失败，不会将listen事件添加到epoll队列中，这样也就不会调用accept接收请求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多个进程顺序监听同一个端口，当有读写事件发生时，第一个进程使用epoll监听到了此事件发生，其他进程是否也能监听到读写事件发生呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_close_connection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_free_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_finalize_request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typedef struct ngx_pool_cleanup_s  ngx_pool_cleanup_t;
-struct ngx_pool_cleanup_s {
-    ngx_pool_cleanup_pt   handler;     // 清理函数
-    void                 *data;      // 需要清除的数据
-    ngx_pool_cleanup_t   *next;      // 下一个cleanup callback
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typedef struct ngx_http_cleanup_s  ngx_http_cleanup_t;
-struct ngx_http_cleanup_s {
-    ngx_http_cleanup_pt               handler;
-    void                             *data;
-    ngx_http_cleanup_t               *next;
-};</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_cleanup_add(): 注册清理函数到request的cleanup链表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_pool_cleanup_add()：注册清理函数到内存池pool的cleanup链表中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放在ngx_http_free_request()函数中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放在ngx_destroy_pool()函数中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_rewrite_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NGX_HTTP_</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>POST_READ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_PHASE</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_access_handler
-ngx_http_auth_basic_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -997,22 +863,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_headers_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngx_http_addition_header_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_degradation_handler
-ngx_http_limit_conn_handler
-ngx_http_limit_req_handler
-ngx_http_realip_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1057,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_charset_body_filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>read = ngx_http_block_reading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,16 +933,304 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r-&gt;host_start 字段在解析客户端的请求时没有
-设置，检查这个问题是不是一个BUG问题？</t>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGX_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGX_DECLINED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGX_AGAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGX_DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase中的handler返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase中的处理方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行下一个phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束phase处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束请求 and 结束phase处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 黄色部分仅可以注册一个handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行本phase的下一个handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束phase处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行本phase的下一个handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束phase处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令 "satisfy" = all时，此phase需要执行所有注册的handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令 "satisfy" = any时，有两种情况：第一、如果handler返回NGX_OK, 后续的handler将被跳过并执行下一个phase.
+第二、当handler返回403或401，将执行后续的handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束请求 and 结束phase处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_content_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册内容处理handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         注册了内容处理handler将不会执行系统默认的handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_content_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_finalize_request()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_log_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_degradation_handler
+ngx_http_limit_conn_handler
+ngx_http_limit_req_handler
+ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_access_handler
+ngx_http_auth_basic_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_rewrite_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_REWRITE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FIND_CONFIG</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查uri是否被重定向，被重定向时从find_config_phase执行，否则继续执行后续phase。(每个请求的uri可以被重定向的最大次数：10次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ACCESS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NGX_HTTP_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>POST_ACCESS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_PHASE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对core_access_phase阶段的检查做一些总结，如果core_access_phase执行的handler返回403或401，将结束请求并结束phase的执行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子请求在phase阶段报错，是怎样处理的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_charset_body_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,6 +1393,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1329,7 +1498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1389,13 +1558,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,12 +1731,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,6 +1744,75 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1660,7 +1929,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1734,6 +2003,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1768,6 +2038,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1943,14 +2214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -1960,7 +2231,7 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1974,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1988,17 +2259,17 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2010,13 +2281,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2025,14 +2296,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2040,15 +2311,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2056,15 +2327,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F6" s="40"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2076,11 +2347,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F7" s="40"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2088,19 +2359,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -2108,17 +2379,17 @@
         <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="E9" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -2132,11 +2403,11 @@
         <v>39</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
@@ -2144,17 +2415,17 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -2165,14 +2436,14 @@
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -2180,17 +2451,17 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2199,14 +2470,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="40" t="s">
-        <v>171</v>
-      </c>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2214,17 +2485,17 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -2232,15 +2503,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -2248,17 +2519,17 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -2266,15 +2537,15 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="40" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25">
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2283,24 +2554,24 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F19" s="40"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="41" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2308,26 +2579,26 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2341,173 +2612,483 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="B23:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.125" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="47.625" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="67">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="67">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="67">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="67">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="D6" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="70">
+        <v>3</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="67">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="67">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="67">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="70">
+        <v>9</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="67">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="67">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="67">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+    </row>
+    <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.15">
+      <c r="B22" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="59"/>
+    </row>
+    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="52"/>
+      <c r="C24" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="59"/>
+    </row>
+    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="52"/>
+      <c r="C25" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="59"/>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="52"/>
+      <c r="C26" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="59"/>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="53"/>
+      <c r="C27" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="59"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="56"/>
+      <c r="C29" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="57"/>
+      <c r="C30" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B31" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="79.5" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="112.5" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.25" customHeight="1"/>
-    <row r="16" spans="1:3">
-      <c r="A16" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-    </row>
+      <c r="C31" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="59"/>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="52"/>
+      <c r="C32" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="59"/>
+    </row>
+    <row r="33" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="52"/>
+      <c r="C33" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="59"/>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="52"/>
+      <c r="C34" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="59"/>
+    </row>
+    <row r="35" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="52"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="62"/>
+    </row>
+    <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="52"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+    </row>
+    <row r="37" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="52"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+    </row>
+    <row r="38" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B38" s="53"/>
+      <c r="C38" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="59"/>
+    </row>
+    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="55"/>
+    </row>
+    <row r="40" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="56"/>
+      <c r="C40" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="64"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="57"/>
+      <c r="C41" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="64"/>
+    </row>
+    <row r="47" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:C18"/>
+  <mergeCells count="25">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D35:E37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2516,80 +3097,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1">
+    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B1" s="32">
         <v>41291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" customHeight="1">
+    <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
     </row>
@@ -2601,173 +3182,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="5" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1">
+    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1">
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="81" customHeight="1">
+    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1">
+    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="59.25" customHeight="1">
+    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="119.25" customHeight="1">
+    <row r="7" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="108.75" customHeight="1">
+    <row r="8" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1">
+    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="71.25" customHeight="1">
+    <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1">
+    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1">
+    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="55.5" customHeight="1">
+    <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A14" s="33" t="s">
-        <v>180</v>
+    <row r="14" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="3"/>
@@ -2782,44 +3363,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="68.625" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="102" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:2" ht="104.25" customHeight="1">
+    <row r="4" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="21"/>
     </row>
@@ -2830,14 +3411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
@@ -2846,148 +3427,148 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1">
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1">
+    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="35.25" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="39.75" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -3005,115 +3586,115 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
     <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1"/>
-    <row r="24" spans="1:6" ht="21" customHeight="1">
+    <row r="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="122.25" customHeight="1">
-      <c r="A29" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="16.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="16.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="16.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="16.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="26" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3128,21 +3709,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
+    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/trunk/src/debug/analysis/filter模块/module_filter.xlsx
+++ b/trunk/src/debug/analysis/filter模块/module_filter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="filter" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="218">
   <si>
     <t>postconfiguration</t>
   </si>
@@ -346,10 +346,6 @@
   </si>
   <si>
     <t>checker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_generic_phase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1017,10 +1013,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_core_access_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指令 "satisfy" = all时，此phase需要执行所有注册的handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1038,7 +1030,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngx_http_core_post_access_phase</t>
+    <t>注册内容处理handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         注册了内容处理handler将不会执行系统默认的handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,39 +1042,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注册内容处理handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         注册了内容处理handler将不会执行系统默认的handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_core_content_phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngx_http_finalize_request()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngx_http_log_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_degradation_handler
-ngx_http_limit_conn_handler
-ngx_http_limit_req_handler
-ngx_http_realip_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ngx_http_access_handler
-ngx_http_auth_basic_handler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1225,12 +1193,52 @@
     <t>ngx_http_charset_body_filter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ngx_http_access_handler
+ngx_http_auth_basic_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_post_access_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_degradation_handler
+ngx_http_limit_conn_handler
+ngx_http_limit_req_handler
+ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nginx没有找到对应的location是怎么处理的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子请求不执行此phase.将直接执行try_files - phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_generic_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_core_content_phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngx_http_realip_handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,7 +1609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,12 +1733,81 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,74 +1823,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1929,7 +1940,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2003,7 +2014,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2038,7 +2048,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2214,14 +2223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.75" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
@@ -2231,7 +2240,7 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2245,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2259,17 +2268,17 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2281,13 +2290,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2296,14 +2305,14 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="14.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2311,15 +2320,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2327,15 +2336,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="40"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2347,11 +2356,11 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="40"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2359,19 +2368,19 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -2379,17 +2388,17 @@
         <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="40"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
@@ -2403,11 +2412,11 @@
         <v>39</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F10" s="40"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
@@ -2415,17 +2424,17 @@
         <v>35</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="40"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -2436,14 +2445,14 @@
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F12" s="40"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -2451,17 +2460,17 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="40"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2470,14 +2479,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14" s="40"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -2485,17 +2494,17 @@
         <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="40"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -2503,15 +2512,15 @@
         <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="40"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14.25">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -2519,17 +2528,17 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="40"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="14.25">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -2537,15 +2546,15 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="14.25">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2554,51 +2563,51 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F19" s="40"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E20" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2612,14 +2621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="B23:E41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="37.125" customWidth="1"/>
@@ -2631,9 +2640,9 @@
     <col min="8" max="8" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>47</v>
@@ -2642,428 +2651,440 @@
         <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67">
+        <v>61</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="69">
+        <v>217</v>
+      </c>
+      <c r="E2" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67">
+    <row r="3" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="67">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="67">
+        <v>56</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A5" s="44">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="69">
+        <v>62</v>
+      </c>
+      <c r="E5" s="45">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="67">
+    <row r="6" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="70">
+        <v>197</v>
+      </c>
+      <c r="E6" s="46">
         <v>3</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67">
+      <c r="F6" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="69">
+        <v>212</v>
+      </c>
+      <c r="E7" s="45">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="67">
+    <row r="8" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A8" s="44">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="45">
+        <v>9</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72" customHeight="1">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="69">
+      <c r="E9" s="46">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="70">
-        <v>9</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67">
+      <c r="F9" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A10" s="44">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67">
+        <v>83</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="112.5" customHeight="1">
+      <c r="A11" s="44">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="69">
+        <v>153</v>
+      </c>
+      <c r="E11" s="45">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67">
+    <row r="12" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A12" s="44">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="48" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1"/>
+    <row r="16" spans="1:7">
+      <c r="B16" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="22" spans="2:5" ht="21">
+      <c r="B22" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.25">
+      <c r="B23" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="2:5" ht="17.25">
+      <c r="B24" s="59"/>
+      <c r="C24" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.15">
-      <c r="B22" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B23" s="50" t="s">
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="2:5" ht="17.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="2:5" ht="17.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="2:5" ht="17.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.25">
+      <c r="B28" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="64"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.25">
+      <c r="B29" s="54"/>
+      <c r="C29" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="64"/>
+    </row>
+    <row r="30" spans="2:5" ht="17.25">
+      <c r="B30" s="55"/>
+      <c r="C30" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="64"/>
+    </row>
+    <row r="31" spans="2:5" ht="17.25">
+      <c r="B31" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="2:5" ht="17.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="61"/>
+    </row>
+    <row r="33" spans="2:5" ht="17.25">
+      <c r="B33" s="59"/>
+      <c r="C33" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="2:5" ht="17.25">
+      <c r="B34" s="59"/>
+      <c r="C34" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D34" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B35" s="59"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="56"/>
+    </row>
+    <row r="36" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B36" s="59"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+    </row>
+    <row r="37" spans="2:5" ht="17.25" customHeight="1">
+      <c r="B37" s="59"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+    </row>
+    <row r="38" spans="2:5" ht="17.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B39" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="2:5" ht="21" customHeight="1">
+      <c r="B40" s="54"/>
+      <c r="C40" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="59"/>
-    </row>
-    <row r="24" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="52"/>
-      <c r="C24" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="59"/>
-    </row>
-    <row r="25" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
-      <c r="C25" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="59"/>
-    </row>
-    <row r="26" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
-      <c r="C26" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="27" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="53"/>
-      <c r="C27" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="59"/>
-    </row>
-    <row r="28" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="54" t="s">
+      <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="60"/>
-    </row>
-    <row r="29" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="56"/>
-      <c r="C29" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="57"/>
-      <c r="C30" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="60"/>
-    </row>
-    <row r="31" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" s="59"/>
-    </row>
-    <row r="32" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="52"/>
-      <c r="C32" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="59"/>
-    </row>
-    <row r="33" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="52"/>
-      <c r="C33" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="59"/>
-    </row>
-    <row r="34" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B34" s="52"/>
-      <c r="C34" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="59" t="s">
+      <c r="E40" s="52"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1">
+      <c r="B41" s="55"/>
+      <c r="C41" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="E34" s="59"/>
-    </row>
-    <row r="35" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="52"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="62"/>
-    </row>
-    <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="52"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-    </row>
-    <row r="37" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="52"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-    </row>
-    <row r="38" spans="2:5" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="53"/>
-      <c r="C38" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="59"/>
-    </row>
-    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="55"/>
-    </row>
-    <row r="40" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
-      <c r="C40" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="64"/>
-    </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="57"/>
-      <c r="C41" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="64"/>
-    </row>
-    <row r="47" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D41" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="52"/>
+    </row>
+    <row r="47" spans="2:5" ht="61.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D40:E40"/>
@@ -3080,15 +3101,6 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3097,80 +3109,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="53.625" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="40.5" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="32">
         <v>41291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.5" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
     </row>
@@ -3182,173 +3194,175 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="42.75" customWidth="1"/>
     <col min="2" max="5" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="72" customHeight="1">
       <c r="A2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="73.5" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="81" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="59.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="119.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="119.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="108.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="71.25" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="52.5" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="66.75" customHeight="1">
       <c r="A12" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="55.5" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="53.25" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="18"/>
       <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="18"/>
       <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="18"/>
       <c r="B18" s="23"/>
       <c r="C18" s="3"/>
@@ -3363,44 +3377,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="68.625" customWidth="1"/>
     <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
       <c r="A1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B2" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="102" customHeight="1">
       <c r="A3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:2" ht="104.25" customHeight="1">
+      <c r="A4" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:2" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="B4" s="21"/>
     </row>
@@ -3411,14 +3425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
@@ -3427,148 +3441,148 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A11" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="45" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="C13" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>121</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>124</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="35.25" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="36.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="39.75" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -3586,115 +3600,115 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
     <col min="2" max="2" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="24" customHeight="1"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1">
       <c r="A24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="21" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A26" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
+      <c r="B26" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="122.25" customHeight="1">
+      <c r="A29" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5">
       <c r="A33" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5">
       <c r="A34" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5">
       <c r="A35" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5">
       <c r="A36" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5">
+      <c r="A37" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="26" t="s">
+    <row r="38" spans="1:1" ht="16.5">
+      <c r="A38" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="26" t="s">
+    <row r="39" spans="1:1" ht="16.5">
+      <c r="A39" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="26" t="s">
+    <row r="40" spans="1:1" ht="16.5">
+      <c r="A40" s="26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="26" t="s">
+    <row r="41" spans="1:1" ht="16.5">
+      <c r="A41" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="26" t="s">
+    <row r="42" spans="1:1" ht="16.5">
+      <c r="A42" s="26" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="26" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3709,21 +3723,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
+    <row r="1" spans="1:2" ht="37.5" customHeight="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
